--- a/3.results/model_selection/fou_de_bassan_HR_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/fou_de_bassan_HR_3_blocks_assemblage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCF2C0-BB11-4020-BC12-E5E1719320C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622186E-C1E7-42C0-9B22-2C205878D601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blocks" sheetId="1" r:id="rId1"/>
@@ -592,12 +592,12 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
